--- a/Team-Data/2014-15/2-9-2014-15.xlsx
+++ b/Team-Data/2014-15/2-9-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,85 +733,85 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L2" t="n">
         <v>9.9</v>
       </c>
       <c r="M2" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.393</v>
+        <v>0.391</v>
       </c>
       <c r="O2" t="n">
         <v>17.5</v>
       </c>
       <c r="P2" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.778</v>
+        <v>0.775</v>
       </c>
       <c r="R2" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T2" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U2" t="n">
         <v>25.8</v>
       </c>
       <c r="V2" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W2" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.7</v>
+        <v>103.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -759,37 +826,37 @@
         <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
         <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -801,13 +868,13 @@
         <v>11</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
         <v>16</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -935,7 +1002,7 @@
         <v>20</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
         <v>14</v>
@@ -980,19 +1047,19 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>0.412</v>
+        <v>0.42</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,19 +1115,19 @@
         <v>36.3</v>
       </c>
       <c r="J4" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
         <v>6.6</v>
       </c>
       <c r="M4" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.321</v>
+        <v>0.32</v>
       </c>
       <c r="O4" t="n">
         <v>16.4</v>
@@ -1069,7 +1136,7 @@
         <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R4" t="n">
         <v>9.800000000000001</v>
@@ -1081,52 +1148,52 @@
         <v>41.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y4" t="n">
         <v>4.5</v>
       </c>
       <c r="Z4" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AA4" t="n">
         <v>20</v>
       </c>
-      <c r="AA4" t="n">
-        <v>19.9</v>
-      </c>
       <c r="AB4" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC4" t="n">
         <v>-3.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
         <v>18</v>
@@ -1144,10 +1211,10 @@
         <v>22</v>
       </c>
       <c r="AP4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>20</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>22</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1162,10 +1229,10 @@
         <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX4" t="n">
         <v>23</v>
@@ -1177,13 +1244,13 @@
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
         <v>28</v>
@@ -1326,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ5" t="n">
         <v>26</v>
@@ -1338,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
         <v>25</v>
@@ -1350,10 +1417,10 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -1472,28 +1539,28 @@
         <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>5</v>
       </c>
       <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK6" t="n">
         <v>20</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1526,7 +1593,7 @@
         <v>16</v>
       </c>
       <c r="AV6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1666,16 +1733,16 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
         <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
         <v>8</v>
@@ -1684,13 +1751,13 @@
         <v>7</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP7" t="n">
         <v>8</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>7</v>
       </c>
       <c r="AQ7" t="n">
         <v>16</v>
@@ -1702,7 +1769,7 @@
         <v>23</v>
       </c>
       <c r="AT7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU7" t="n">
         <v>12</v>
@@ -1711,19 +1778,19 @@
         <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX7" t="n">
         <v>25</v>
       </c>
       <c r="AY7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -1773,49 +1840,49 @@
         <v>48.6</v>
       </c>
       <c r="I8" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="J8" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.466</v>
+        <v>0.468</v>
       </c>
       <c r="L8" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="O8" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P8" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="R8" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.6</v>
+        <v>42.3</v>
       </c>
       <c r="U8" t="n">
         <v>23.2</v>
       </c>
       <c r="V8" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="W8" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>5</v>
@@ -1824,16 +1891,16 @@
         <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AD8" t="n">
         <v>2</v>
@@ -1848,13 +1915,13 @@
         <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1863,28 +1930,28 @@
         <v>6</v>
       </c>
       <c r="AM8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ8" t="n">
         <v>15</v>
       </c>
       <c r="AR8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT8" t="n">
         <v>20</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>19</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1902,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
@@ -1911,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -1940,43 +2007,43 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="n">
         <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" t="n">
-        <v>0.365</v>
+        <v>0.373</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J9" t="n">
         <v>86.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M9" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="N9" t="n">
         <v>0.317</v>
       </c>
       <c r="O9" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P9" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q9" t="n">
         <v>0.741</v>
@@ -1985,16 +2052,16 @@
         <v>12.2</v>
       </c>
       <c r="S9" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T9" t="n">
-        <v>45.1</v>
+        <v>45.3</v>
       </c>
       <c r="U9" t="n">
         <v>21.6</v>
       </c>
       <c r="V9" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
@@ -2003,7 +2070,7 @@
         <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z9" t="n">
         <v>23.1</v>
@@ -2012,25 +2079,25 @@
         <v>20.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
@@ -2042,7 +2109,7 @@
         <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
         <v>12</v>
@@ -2054,13 +2121,13 @@
         <v>6</v>
       </c>
       <c r="AP9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -2069,31 +2136,31 @@
         <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2212,10 +2279,10 @@
         <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>8</v>
@@ -2227,13 +2294,13 @@
         <v>10</v>
       </c>
       <c r="AM10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP10" t="n">
         <v>15</v>
@@ -2260,16 +2327,16 @@
         <v>13</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>6</v>
       </c>
       <c r="BA10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.82</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="J11" t="n">
-        <v>86.90000000000001</v>
+        <v>87</v>
       </c>
       <c r="K11" t="n">
-        <v>0.481</v>
+        <v>0.483</v>
       </c>
       <c r="L11" t="n">
         <v>10.5</v>
       </c>
       <c r="M11" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="N11" t="n">
-        <v>0.387</v>
+        <v>0.39</v>
       </c>
       <c r="O11" t="n">
         <v>16.8</v>
@@ -2346,13 +2413,13 @@
         <v>0.774</v>
       </c>
       <c r="R11" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S11" t="n">
         <v>34.6</v>
       </c>
       <c r="T11" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U11" t="n">
         <v>27.3</v>
@@ -2361,28 +2428,28 @@
         <v>14.9</v>
       </c>
       <c r="W11" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X11" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y11" t="n">
         <v>3.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
         <v>19.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>110.9</v>
+        <v>111.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2409,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN11" t="n">
         <v>2</v>
@@ -2436,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW11" t="n">
         <v>4</v>
@@ -2448,7 +2515,7 @@
         <v>3</v>
       </c>
       <c r="AZ11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
         <v>16</v>
       </c>
       <c r="G12" t="n">
-        <v>0.68</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
@@ -2516,34 +2583,34 @@
         <v>33.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.719</v>
+        <v>0.717</v>
       </c>
       <c r="R12" t="n">
         <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
         <v>21.5</v>
       </c>
       <c r="V12" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="W12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>4.5</v>
@@ -2552,22 +2619,22 @@
         <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
@@ -2579,7 +2646,7 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
         <v>14</v>
@@ -2594,19 +2661,19 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
         <v>22</v>
@@ -2621,19 +2688,19 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="n">
         <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" t="n">
-        <v>0.377</v>
+        <v>0.385</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,37 +2753,37 @@
         <v>36.2</v>
       </c>
       <c r="J13" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K13" t="n">
         <v>0.434</v>
       </c>
       <c r="L13" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M13" t="n">
         <v>20.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.331</v>
+        <v>0.33</v>
       </c>
       <c r="O13" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P13" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.761</v>
+        <v>0.758</v>
       </c>
       <c r="R13" t="n">
         <v>10.7</v>
       </c>
       <c r="S13" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="T13" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U13" t="n">
         <v>21.1</v>
@@ -2725,37 +2792,37 @@
         <v>14.4</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y13" t="n">
         <v>4.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC13" t="n">
         <v>-1.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>20</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH13" t="n">
         <v>18</v>
@@ -2767,7 +2834,7 @@
         <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
         <v>22</v>
@@ -2785,7 +2852,7 @@
         <v>24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>18</v>
@@ -2797,10 +2864,10 @@
         <v>7</v>
       </c>
       <c r="AU13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
@@ -2809,16 +2876,16 @@
         <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>8</v>
       </c>
       <c r="BB13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC13" t="n">
         <v>18</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="n">
         <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>0.642</v>
+        <v>0.635</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,7 +2935,7 @@
         <v>39.2</v>
       </c>
       <c r="J14" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K14" t="n">
         <v>0.472</v>
@@ -2883,34 +2950,34 @@
         <v>0.374</v>
       </c>
       <c r="O14" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P14" t="n">
         <v>24.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.742</v>
+        <v>0.74</v>
       </c>
       <c r="R14" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S14" t="n">
         <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U14" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V14" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W14" t="n">
         <v>7.8</v>
       </c>
       <c r="X14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y14" t="n">
         <v>3</v>
@@ -2919,19 +2986,19 @@
         <v>20.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.7</v>
+        <v>106.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>8</v>
@@ -2949,7 +3016,7 @@
         <v>19</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL14" t="n">
         <v>5</v>
@@ -2961,19 +3028,19 @@
         <v>5</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
       </c>
       <c r="AS14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT14" t="n">
         <v>24</v>
@@ -2994,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" t="n">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="H15" t="n">
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>86.2</v>
+        <v>86</v>
       </c>
       <c r="K15" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L15" t="n">
         <v>6.8</v>
       </c>
       <c r="M15" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N15" t="n">
         <v>0.348</v>
       </c>
       <c r="O15" t="n">
-        <v>17.9</v>
+        <v>18.2</v>
       </c>
       <c r="P15" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R15" t="n">
         <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>13.1</v>
@@ -3098,19 +3165,19 @@
         <v>4.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.6</v>
+        <v>-6.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,13 +3192,13 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>23</v>
@@ -3140,7 +3207,7 @@
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
         <v>9</v>
@@ -3155,13 +3222,13 @@
         <v>8</v>
       </c>
       <c r="AS15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT15" t="n">
         <v>13</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
         <v>7</v>
@@ -3170,16 +3237,16 @@
         <v>18</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
         <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB15" t="n">
         <v>19</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>5.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3322,13 +3389,13 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ16" t="n">
         <v>5</v>
@@ -3337,7 +3404,7 @@
         <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT16" t="n">
         <v>16</v>
@@ -3346,7 +3413,7 @@
         <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
@@ -3358,10 +3425,10 @@
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA16" t="n">
         <v>10</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>11</v>
       </c>
       <c r="BB16" t="n">
         <v>12</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -3396,49 +3463,49 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" t="n">
         <v>29</v>
       </c>
       <c r="G17" t="n">
-        <v>0.431</v>
+        <v>0.42</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="J17" t="n">
         <v>75.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M17" t="n">
         <v>20.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.344</v>
+        <v>0.34</v>
       </c>
       <c r="O17" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P17" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.741</v>
+        <v>0.738</v>
       </c>
       <c r="R17" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S17" t="n">
         <v>29.3</v>
@@ -3447,7 +3514,7 @@
         <v>37.9</v>
       </c>
       <c r="U17" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="V17" t="n">
         <v>14.6</v>
@@ -3459,31 +3526,31 @@
         <v>4.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z17" t="n">
         <v>19.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>92.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.5</v>
+        <v>-3.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>29</v>
@@ -3504,7 +3571,7 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
         <v>14</v>
@@ -3513,7 +3580,7 @@
         <v>14</v>
       </c>
       <c r="AQ17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3537,19 +3604,19 @@
         <v>24</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ17" t="n">
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" t="n">
         <v>23</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.549</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
@@ -3596,10 +3663,10 @@
         <v>38</v>
       </c>
       <c r="J18" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L18" t="n">
         <v>7.2</v>
@@ -3611,16 +3678,16 @@
         <v>0.377</v>
       </c>
       <c r="O18" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="P18" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.772</v>
+        <v>0.769</v>
       </c>
       <c r="R18" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S18" t="n">
         <v>31.1</v>
@@ -3632,10 +3699,10 @@
         <v>23.7</v>
       </c>
       <c r="V18" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W18" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
         <v>4.8</v>
@@ -3644,22 +3711,22 @@
         <v>4.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
         <v>13</v>
@@ -3674,13 +3741,13 @@
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK18" t="n">
         <v>6</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
@@ -3689,7 +3756,7 @@
         <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
@@ -3698,7 +3765,7 @@
         <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS18" t="n">
         <v>24</v>
@@ -3719,13 +3786,13 @@
         <v>12</v>
       </c>
       <c r="AY18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="n">
         <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>0.212</v>
+        <v>0.216</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J19" t="n">
-        <v>84.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
         <v>5.1</v>
@@ -3790,25 +3857,25 @@
         <v>14.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O19" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P19" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R19" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="S19" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T19" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U19" t="n">
         <v>22.1</v>
@@ -3817,10 +3884,10 @@
         <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y19" t="n">
         <v>5.8</v>
@@ -3832,13 +3899,13 @@
         <v>21.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,13 +3917,13 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3874,19 +3941,19 @@
         <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU19" t="n">
         <v>11</v>
@@ -3898,7 +3965,7 @@
         <v>7</v>
       </c>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY19" t="n">
         <v>27</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -3945,61 +4012,61 @@
         <v>51</v>
       </c>
       <c r="E20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>0.51</v>
+        <v>0.529</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="J20" t="n">
-        <v>83.8</v>
+        <v>84.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L20" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.355</v>
+        <v>0.347</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.761</v>
       </c>
       <c r="R20" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="S20" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.9</v>
+        <v>44.3</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
         <v>5.8</v>
@@ -4011,37 +4078,37 @@
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG20" t="n">
         <v>15</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>16</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
       </c>
       <c r="AI20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>11</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>13</v>
-      </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>24</v>
@@ -4050,7 +4117,7 @@
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
@@ -4059,25 +4126,25 @@
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AT20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
         <v>17</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AX20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" t="n">
-        <v>0.192</v>
+        <v>0.196</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4160,19 +4227,19 @@
         <v>13.3</v>
       </c>
       <c r="P21" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R21" t="n">
         <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T21" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="U21" t="n">
         <v>21.6</v>
@@ -4184,10 +4251,10 @@
         <v>7.2</v>
       </c>
       <c r="X21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z21" t="n">
         <v>21.9</v>
@@ -4199,10 +4266,10 @@
         <v>92.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7.8</v>
+        <v>-7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4220,7 +4287,7 @@
         <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
@@ -4232,7 +4299,7 @@
         <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
@@ -4256,13 +4323,13 @@
         <v>13</v>
       </c>
       <c r="AV21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AW21" t="n">
         <v>21</v>
       </c>
       <c r="AX21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY21" t="n">
         <v>6</v>
@@ -4274,7 +4341,7 @@
         <v>28</v>
       </c>
       <c r="BB21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -4306,64 +4373,64 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" t="n">
         <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>0.519</v>
+        <v>0.51</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J22" t="n">
-        <v>84.90000000000001</v>
+        <v>85</v>
       </c>
       <c r="K22" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L22" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.325</v>
+        <v>0.321</v>
       </c>
       <c r="O22" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P22" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="Q22" t="n">
         <v>0.75</v>
       </c>
       <c r="R22" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="T22" t="n">
-        <v>46.4</v>
+        <v>46.6</v>
       </c>
       <c r="U22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V22" t="n">
         <v>14.8</v>
       </c>
       <c r="W22" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X22" t="n">
         <v>6</v>
@@ -4375,28 +4442,28 @@
         <v>22.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>100.6</v>
+        <v>100.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH22" t="n">
         <v>15</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>14</v>
@@ -4405,10 +4472,10 @@
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
         <v>15</v>
@@ -4417,16 +4484,16 @@
         <v>26</v>
       </c>
       <c r="AO22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ22" t="n">
         <v>18</v>
       </c>
       <c r="AR22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4438,25 +4505,25 @@
         <v>28</v>
       </c>
       <c r="AV22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX22" t="n">
         <v>3</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB22" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BC22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4573,7 @@
         <v>37.4</v>
       </c>
       <c r="J23" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K23" t="n">
         <v>0.457</v>
@@ -4515,43 +4582,43 @@
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.358</v>
+        <v>0.361</v>
       </c>
       <c r="O23" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="P23" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>40.5</v>
+        <v>40.9</v>
       </c>
       <c r="U23" t="n">
         <v>20.6</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
         <v>3.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="Z23" t="n">
         <v>21.1</v>
@@ -4560,7 +4627,7 @@
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC23" t="n">
         <v>-6</v>
@@ -4572,7 +4639,7 @@
         <v>26</v>
       </c>
       <c r="AF23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
         <v>26</v>
@@ -4596,7 +4663,7 @@
         <v>23</v>
       </c>
       <c r="AN23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4611,16 +4678,16 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT23" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AU23" t="n">
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4629,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>20</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" t="n">
         <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>0.226</v>
+        <v>0.231</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,7 +4755,7 @@
         <v>32.9</v>
       </c>
       <c r="J24" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.41</v>
@@ -4703,28 +4770,28 @@
         <v>0.31</v>
       </c>
       <c r="O24" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P24" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="R24" t="n">
         <v>11.4</v>
       </c>
       <c r="S24" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="T24" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U24" t="n">
         <v>20.3</v>
       </c>
       <c r="V24" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="W24" t="n">
         <v>9.800000000000001</v>
@@ -4739,16 +4806,16 @@
         <v>21.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>89.8</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.7</v>
+        <v>-10.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4781,7 +4848,7 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP24" t="n">
         <v>9</v>
@@ -4805,7 +4872,7 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24" t="n">
         <v>4</v>
@@ -4814,7 +4881,7 @@
         <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -4942,7 +5009,7 @@
         <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI25" t="n">
         <v>3</v>
@@ -4963,7 +5030,7 @@
         <v>12</v>
       </c>
       <c r="AO25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
         <v>25</v>
@@ -4975,19 +5042,19 @@
         <v>19</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV25" t="n">
         <v>23</v>
       </c>
       <c r="AW25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
@@ -4999,7 +5066,7 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
@@ -5124,13 +5191,13 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK26" t="n">
         <v>19</v>
@@ -5142,10 +5209,10 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
         <v>27</v>
@@ -5169,7 +5236,7 @@
         <v>10</v>
       </c>
       <c r="AW26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -5297,13 +5364,13 @@
         <v>26</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
         <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>6</v>
@@ -5333,13 +5400,13 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT27" t="n">
         <v>8</v>
@@ -5366,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -5416,19 +5483,19 @@
         <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>83.5</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="N28" t="n">
-        <v>0.361</v>
+        <v>0.367</v>
       </c>
       <c r="O28" t="n">
         <v>16.7</v>
@@ -5437,49 +5504,49 @@
         <v>21.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R28" t="n">
         <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="V28" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AC28" t="n">
         <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
         <v>8</v>
@@ -5494,10 +5561,10 @@
         <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,7 +5573,7 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>18</v>
@@ -5515,40 +5582,40 @@
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
         <v>11</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AW28" t="n">
         <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>4.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>4</v>
@@ -5670,13 +5737,13 @@
         <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>8</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>9</v>
@@ -5688,7 +5755,7 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5709,7 +5776,7 @@
         <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV29" t="n">
         <v>4</v>
@@ -5718,7 +5785,7 @@
         <v>16</v>
       </c>
       <c r="AX29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" t="n">
         <v>33</v>
       </c>
       <c r="G30" t="n">
-        <v>0.365</v>
+        <v>0.353</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J30" t="n">
-        <v>79.7</v>
+        <v>79.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L30" t="n">
         <v>7.2</v>
@@ -5792,64 +5859,64 @@
         <v>21</v>
       </c>
       <c r="N30" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="O30" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P30" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.739</v>
+        <v>0.74</v>
       </c>
       <c r="R30" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="S30" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T30" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U30" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X30" t="n">
         <v>5.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="n">
         <v>19.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5864,13 +5931,13 @@
         <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
         <v>16</v>
@@ -5879,7 +5946,7 @@
         <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5888,7 +5955,7 @@
         <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>27</v>
@@ -5897,22 +5964,22 @@
         <v>25</v>
       </c>
       <c r="AW30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX30" t="n">
         <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA30" t="n">
         <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC30" t="n">
         <v>21</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
@@ -5944,61 +6011,61 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" t="n">
         <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>0.623</v>
+        <v>0.615</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J31" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L31" t="n">
         <v>6.1</v>
       </c>
       <c r="M31" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.377</v>
+        <v>0.38</v>
       </c>
       <c r="O31" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P31" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="R31" t="n">
         <v>10.4</v>
       </c>
       <c r="S31" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T31" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U31" t="n">
         <v>24.4</v>
       </c>
       <c r="V31" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W31" t="n">
         <v>7.4</v>
@@ -6007,22 +6074,22 @@
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>9</v>
@@ -6034,16 +6101,16 @@
         <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
       </c>
       <c r="AJ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6055,13 +6122,13 @@
         <v>3</v>
       </c>
       <c r="AO31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
         <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
         <v>22</v>
@@ -6070,28 +6137,28 @@
         <v>9</v>
       </c>
       <c r="AT31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AW31" t="n">
         <v>17</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-9-2014-15</t>
+          <t>2015-02-09</t>
         </is>
       </c>
     </row>
